--- a/Documentation/EECS Project 2 Hours.xlsx
+++ b/Documentation/EECS Project 2 Hours.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c354l536_home_ku_edu/Documents/Documents/GitHub/2/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9CE44D60E2B816750CF7BD16D62528E350C244A7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68C7575F-F11F-4DD6-BE15-7062DF359D47}"/>
+  <bookViews>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,40 +105,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -132,6 +164,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -143,69 +176,101 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,122 +279,110 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -519,42 +572,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -569,7 +627,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -602,226 +660,226 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="7">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
       <c r="E9" s="9">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="F9" s="8">
         <v>0.5</v>
       </c>
       <c r="G9" s="9">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="H9" s="10">
         <v>0.5</v>
       </c>
       <c r="I9" s="9">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="J9" s="10">
         <v>0.5</v>
       </c>
       <c r="K9" s="9">
-        <v>44460.0</v>
+        <v>44460</v>
       </c>
       <c r="L9" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="7">
-        <v>44465.0</v>
+        <v>44465</v>
       </c>
       <c r="D10" s="12">
         <v>0.5</v>
       </c>
       <c r="E10" s="9">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="F10" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="9">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="H10" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9">
-        <v>44468.0</v>
+        <v>44468</v>
       </c>
       <c r="J10" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="9">
-        <v>44465.0</v>
+        <v>44465</v>
       </c>
       <c r="L10" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="7">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="D11" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="9">
-        <v>44474.0</v>
+        <v>44474</v>
       </c>
       <c r="F11" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="9">
-        <v>44474.0</v>
+        <v>44474</v>
       </c>
       <c r="H11" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="J11" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="L11" s="15">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="7">
-        <v>44473.0</v>
+        <v>44473</v>
       </c>
       <c r="D12" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="9">
-        <v>44475.0</v>
+        <v>44475</v>
       </c>
       <c r="F12" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9">
-        <v>44475.0</v>
+        <v>44475</v>
       </c>
       <c r="H12" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="9">
-        <v>44474.0</v>
+        <v>44474</v>
       </c>
       <c r="J12" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="9">
-        <v>44474.0</v>
+        <v>44474</v>
       </c>
       <c r="L12" s="15">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="7">
-        <v>44474.0</v>
+        <v>44474</v>
       </c>
       <c r="D13" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="9">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="F13" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="9">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="H13" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="9">
-        <v>44475.0</v>
+        <v>44475</v>
       </c>
       <c r="J13" s="13">
         <v>0.5</v>
       </c>
       <c r="K13" s="9">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="L13" s="15">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="7">
-        <v>44475.0</v>
+        <v>44475</v>
       </c>
       <c r="D14" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="9">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="F14" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="9">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="H14" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="J14" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="9">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="L14" s="15">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="9">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="D15" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="J15" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
@@ -829,42 +887,46 @@
       <c r="F16" s="25"/>
       <c r="G16" s="21"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="19">
+        <v>44478</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2</v>
+      </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f>SUM(D9:D16)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
         <f>SUM(F9:F15)</f>
         <v>13.5</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29">
+      <c r="G17" s="28"/>
+      <c r="H17" s="28">
         <f>SUM(H9:H15)</f>
         <v>14.5</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29">
-        <f>SUM(J9:J15)</f>
-        <v>17</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28">
+        <f>SUM(J9:J16)</f>
+        <v>19</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28">
         <f>SUM(L9:L15)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -877,14 +939,14 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <f>D17+F17+H17+J17+L17</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -895,81 +957,81 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2">
         <f>D19</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <f>B24/B25</f>
-        <v>11.975</v>
+        <v>11.682926829268293</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="2">
-        <v>350.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="32"/>
-    </row>
-    <row r="32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="30">
         <f>B30/B26</f>
-        <v>29.22755741</v>
+        <v>29.95824634655532</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/EECS Project 2 Hours.xlsx
+++ b/Documentation/EECS Project 2 Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c354l536_home_ku_edu/Documents/Documents/GitHub/2/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewloaiza/Documents/KU/EECS_448/Projects/Project2_repo/eecs-448-Project-2/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_9CE44D60E2B816750CF7BD16D62528E350C244A7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68C7575F-F11F-4DD6-BE15-7062DF359D47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6FE37-7A0B-4141-9D74-87E2CA39BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="29800" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -289,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -343,11 +341,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,18 +581,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,7 +626,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -660,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="7">
         <v>44460</v>
@@ -693,7 +692,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="C10" s="7">
         <v>44465</v>
@@ -726,7 +725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <v>44469</v>
@@ -759,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="7">
         <v>44473</v>
@@ -792,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="7">
         <v>44474</v>
@@ -825,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="7">
         <v>44475</v>
@@ -858,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="9">
         <v>44477</v>
@@ -866,9 +865,13 @@
       <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="19">
+        <v>44478</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
         <v>44477</v>
@@ -877,77 +880,72 @@
         <v>1</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="26"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="19">
         <v>44478</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="14">
         <v>2</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="28">
-        <f>SUM(D9:D16)</f>
+      <c r="D18" s="26">
+        <f>SUM(D9:D17)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28">
-        <f>SUM(F9:F15)</f>
-        <v>13.5</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28">
-        <f>SUM(H9:H15)</f>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <f>SUM(F9:F17)</f>
+        <v>17.5</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26">
+        <f>SUM(H9:H17)</f>
         <v>14.5</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28">
-        <f>SUM(J9:J16)</f>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26">
+        <f>SUM(J9:J17)</f>
         <v>19</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26">
         <f>SUM(L9:L15)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29">
-        <f>D17+F17+H17+J17+L17</f>
-        <v>82</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -957,77 +955,95 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="27">
+        <f>D18+F18+H18+J18+L18</f>
+        <v>86</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>958</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2">
-        <f>D19</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2">
+        <f>D20</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="30">
-        <f>B24/B25</f>
-        <v>11.682926829268293</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="28">
+        <f>B25/B26</f>
+        <v>11.13953488372093</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>200</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="30">
-        <f>B30/B26</f>
-        <v>29.95824634655532</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="28">
+        <f>B31/B27</f>
+        <v>31.419624217118997</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Documentation/EECS Project 2 Hours.xlsx
+++ b/Documentation/EECS Project 2 Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewloaiza/Documents/KU/EECS_448/Projects/Project2_repo/eecs-448-Project-2/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c354l536_home_ku_edu/Documents/Documents/GitHub/2/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6FE37-7A0B-4141-9D74-87E2CA39BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ECB6FE37-7A0B-4141-9D74-87E2CA39BBC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{8428F06B-9EE5-4FDC-BBF9-8761FEC5EBC6}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="29800" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -287,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -350,7 +352,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,15 +585,15 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -626,7 +627,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -659,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="7">
         <v>44460</v>
@@ -692,7 +693,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="7">
         <v>44465</v>
@@ -725,7 +726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <v>44469</v>
@@ -758,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="7">
         <v>44473</v>
@@ -791,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="7">
         <v>44474</v>
@@ -824,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="7">
         <v>44475</v>
@@ -857,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="9">
         <v>44477</v>
@@ -871,25 +872,41 @@
       <c r="F15" s="20">
         <v>4</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9">
+      <c r="G15" s="19">
+        <v>44478</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
         <v>44477</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="19">
+        <v>44479</v>
+      </c>
+      <c r="L15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="19"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="19">
+        <v>44479</v>
+      </c>
+      <c r="F16" s="14">
+        <v>6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>44479</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6</v>
+      </c>
       <c r="I16" s="19">
         <v>44478</v>
       </c>
@@ -897,52 +914,56 @@
         <v>2</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="29">
+        <v>44479</v>
+      </c>
+      <c r="J17" s="23">
+        <v>6</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <f>SUM(D9:D17)</f>
         <v>15</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
         <f>SUM(F9:F17)</f>
-        <v>17.5</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26">
+        <v>23.5</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25">
         <f>SUM(H9:H17)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26">
+        <v>21.5</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25">
         <f>SUM(J9:J17)</f>
-        <v>19</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26">
+        <v>25</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25">
         <f>SUM(L9:L15)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -955,14 +976,14 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <f>D18+F18+H18+J18+L18</f>
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -973,7 +994,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -984,28 +1005,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2">
         <f>D20</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <f>B25/B26</f>
-        <v>11.13953488372093</v>
+        <v>8.9532710280373831</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1032,16 +1053,16 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <f>B31/B27</f>
-        <v>31.419624217118997</v>
+        <v>39.091858037578291</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
